--- a/results/tra_val_results/df_train_results_2000-03-16_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000-03-16_19_01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -637,58 +637,3189 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
+        <v>0.691258430480957</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4959591031074524</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6848965883255005</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6912596225738525</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6849106550216675</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6912583708763123</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5004143714904785</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6848806738853455</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5008679032325745</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.6912596225738525</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6849106550216675</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6911951899528503</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4995315968990326</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.6804611682891846</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5504390597343445</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6912621855735779</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.684913158416748</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6911837458610535</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5030462145805359</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6767805814743042</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5920398235321045</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5677965879440308</v>
+      </c>
+      <c r="W5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6912850141525269</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.4953227043151855</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6827653646469116</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5376760959625244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7068814039230347</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5367231369018555</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5380341410636902</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" t="n">
+        <v>27</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6974948644638062</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5721393227577209</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5720338821411133</v>
+      </c>
+      <c r="W6" t="n">
+        <v>25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7068814039230347</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5367231369018555</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.5380341410636902</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.6981326937675476</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.5572139024734497</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5467122793197632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7099082469940186</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5503243207931519</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5466902256011963</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>20</v>
+      </c>
+      <c r="S7" t="n">
+        <v>21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.7068084478378296</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5353787541389465</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7099082469940186</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5459300875663757</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5461814999580383</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.7068084478378296</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5721393227577209</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5214927196502686</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6898790001869202</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5363046526908875</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5425311326980591</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>27</v>
+      </c>
+      <c r="R8" t="n">
+        <v>27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>27</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6749820709228516</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5721393227577209</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5712681412696838</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6913124322891235</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5258422493934631</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5314782857894897</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.6834419965744019</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5422885417938232</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5210332870483398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6880775094032288</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5507428050041199</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5502529740333557</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>20</v>
+      </c>
+      <c r="S9" t="n">
+        <v>21</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6818107962608337</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5504900813102722</v>
+      </c>
+      <c r="W9" t="n">
+        <v>16</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6880775094032288</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5463486313819885</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5499696731567383</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.6827936768531799</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5721393227577209</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5431897044181824</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6911836862564087</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5048686265945435</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6817409992218018</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5557994246482849</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6911853551864624</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.496719628572464</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.6841228604316711</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6911841034889221</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5050928592681885</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.6834130883216858</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5621809363365173</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6911853551864624</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.496719628572464</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6841230988502502</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>32</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6897143721580505</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5342121720314026</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5051836967468262</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>37</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.6795382499694824</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5920398235321045</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5903104543685913</v>
+      </c>
+      <c r="W12" t="n">
+        <v>38</v>
+      </c>
+      <c r="X12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.6910554766654968</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.4937974810600281</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.6815745234489441</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5376760959625244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6908692717552185</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5360954403877258</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.506400465965271</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.6801562905311584</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5836737155914307</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.6908769607543945</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.5360954403877258</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.5018150210380554</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.6847633123397827</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7206364870071411</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5323289632797241</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5301597118377686</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>22</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.7061620950698853</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5789259076118469</v>
+      </c>
+      <c r="W14" t="n">
+        <v>27</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.7206364870071411</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5235404968261719</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.5249732136726379</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.7061620950698853</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5621890425682068</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.5573310256004333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.727450430393219</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5480226278305054</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5449351668357849</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>24</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.722764790058136</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5353788137435913</v>
+      </c>
+      <c r="W15" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.727450430393219</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5467671155929565</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.5433754920959473</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.722764790058136</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.5422885417938232</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.5353788137435913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>25</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.6942805051803589</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O16" t="n">
         <v>0.5273069739341736</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P16" t="n">
         <v>0.5314579010009766</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q16" t="n">
         <v>22</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R16" t="n">
         <v>22</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S16" t="n">
         <v>22</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T16" t="n">
         <v>0.6727524995803833</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U16" t="n">
         <v>0.5970149040222168</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V16" t="n">
         <v>0.5764243602752686</v>
       </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>2</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y16" t="n">
         <v>8</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z16" t="n">
         <v>0.6944571733474731</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA16" t="n">
         <v>0.5233312249183655</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB16" t="n">
         <v>0.5246872901916504</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC16" t="n">
         <v>0.680340588092804</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD16" t="n">
         <v>0.5472636818885803</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE16" t="n">
         <v>0.5656524300575256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6895332932472229</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5467671155929565</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5472390055656433</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>23</v>
+      </c>
+      <c r="S17" t="n">
+        <v>24</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.6825910806655884</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.54538494348526</v>
+      </c>
+      <c r="W17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.6901580095291138</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5411173701286316</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.544152557849884</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.6841385960578918</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.5323383212089539</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.541351854801178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6912578344345093</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.4947023987770081</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.6848901510238647</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.6912595629692078</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.6849106550216675</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6912592053413391</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4990143179893494</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.6849068403244019</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5001531839370728</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.6912595629692078</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.6849106550216675</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6911587715148926</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4984336495399475</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.6771584153175354</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.5670818686485291</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.6912598609924316</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.684910774230957</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.691259503364563</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5337936878204346</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5054363012313843</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6834861040115356</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5920398235321045</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5747396349906921</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.6912596225738525</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.4942970871925354</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.6849106550216675</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>40</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7134888172149658</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5208202600479126</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.513415515422821</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>27</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.6988450884819031</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5920398235321045</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.590361475944519</v>
+      </c>
+      <c r="W22" t="n">
+        <v>27</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.7134888172149658</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.5021970868110657</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.504704475402832</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.6988450884819031</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.590361475944519</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7031466960906982</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5350492000579834</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.5287759304046631</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>41</v>
+      </c>
+      <c r="R23" t="n">
+        <v>37</v>
+      </c>
+      <c r="S23" t="n">
+        <v>37</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6917021870613098</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.611940324306488</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.5644271373748779</v>
+      </c>
+      <c r="W23" t="n">
+        <v>41</v>
+      </c>
+      <c r="X23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.7031466960906982</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.5227034687995911</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.5085703134536743</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.6917021870613098</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.5671641826629639</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.5644271373748779</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.6942843198776245</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5204017758369446</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5175196528434753</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>26</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.6735340356826782</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5970149040222168</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5814273953437805</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.6969489455223083</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5021970868110657</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.5028355717658997</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.6809836030006409</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.5771144032478333</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.5737696290016174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6927052140235901</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5388156771659851</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5234718322753906</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>42</v>
+      </c>
+      <c r="R25" t="n">
+        <v>37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>42</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.6811296939849854</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.611940324306488</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.5506943464279175</v>
+      </c>
+      <c r="W25" t="n">
+        <v>45</v>
+      </c>
+      <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6944183111190796</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.521866500377655</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.5100606679916382</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.6811296939849854</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.5771144032478333</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.549724280834198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6911828517913818</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.4988422691822052</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.6840878129005432</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.5376760959625244</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.6911854147911072</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.496719628572464</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.6841229200363159</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>40</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6911832690238953</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.5019625425338745</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.684095561504364</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5529916286468506</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.6911854147911072</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.496719628572464</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.6841229200363159</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>40</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>25</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6912038326263428</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.5006497502326965</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>23</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.6841164827346802</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5080661773681641</v>
+      </c>
+      <c r="W28" t="n">
+        <v>13</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.691206157207489</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.5333752036094666</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.496631383895874</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.6841455101966858</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6910038590431213</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.5360954403877258</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.5173438787460327</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>26</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.6789390444755554</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5970149040222168</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.5664182305335999</v>
+      </c>
+      <c r="W29" t="n">
+        <v>26</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.6912592649459839</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.534839928150177</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.4978745877742767</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.6814953088760376</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.5445681214332581</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n">
+        <v>19</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7266772389411926</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.5241682529449463</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.5177339315414429</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.7095359563827515</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.606965184211731</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.5907188057899475</v>
+      </c>
+      <c r="W30" t="n">
+        <v>28</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.7266772389411926</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.5124502778053284</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.5146530270576477</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.7095359563827515</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.5920398235321045</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.5872473120689392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>32</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>25</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7120993137359619</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.5312827229499817</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.5160778760910034</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>50</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>41</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.7008092403411865</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.6169154047966003</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.5644782781600952</v>
+      </c>
+      <c r="W31" t="n">
+        <v>50</v>
+      </c>
+      <c r="X31" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.7120993137359619</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.5166352987289429</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.4966511726379395</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.7008092403411865</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.606965184211731</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.5539615750312805</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>40</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>32</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>25</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6940008401870728</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5281439423561096</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5225124359130859</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>42</v>
+      </c>
+      <c r="S32" t="n">
+        <v>37</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.6724534034729004</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.6019900441169739</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5943945050239563</v>
+      </c>
+      <c r="W32" t="n">
+        <v>8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.6958679556846619</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.514961302280426</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.504450261592865</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.6831866502761841</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5621890425682068</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5707576274871826</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2000-03-16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>32</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>25</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.6965994834899902</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.5312827229499817</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5162942409515381</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>26</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6825520992279053</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5870646834373474</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.5323667526245117</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.6965994834899902</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.5166352987289429</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.5129456520080566</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.6883561611175537</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.5621890425682068</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.5288442373275757</v>
       </c>
     </row>
   </sheetData>
